--- a/Mavenproject/test1.xlsx
+++ b/Mavenproject/test1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asher\git\mavenpro\Mavenproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCCE366D-BFA2-4357-977F-06FBD03EE16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E46F5E-AFA4-42A3-B751-E320222725BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>sherry</t>
   </si>
@@ -47,6 +46,12 @@
   </si>
   <si>
     <t>ktm</t>
+  </si>
+  <si>
+    <t>alvin</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
 </sst>
 </file>
@@ -418,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +453,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
